--- a/biology/Botanique/Emmanuel_Liais/Emmanuel_Liais.xlsx
+++ b/biology/Botanique/Emmanuel_Liais/Emmanuel_Liais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuel Liais, né le 15 février 1826 à Cherbourg[1] et mort le 5 mars 1900 dans la même ville, est un astronome, explorateur, botaniste, homme politique et géographe français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuel Liais, né le 15 février 1826 à Cherbourg et mort le 5 mars 1900 dans la même ville, est un astronome, explorateur, botaniste, homme politique et géographe français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuel Liais est né à Cherbourg[1], dans une famille aisée, liée à l’industrie de la construction navale. Scientifique amateur, il réalise un certain nombre d’observations météorologiques et rédige quelques rapports. L’un d’entre eux, écrit en 1852, parviendra à l’astronome François Arago. En 1854, il rejoint l’observatoire de Paris, dont il sera directeur adjoint, et assiste Urbain Le Verrier dans la création d’un réseau télégraphique de météorologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuel Liais est né à Cherbourg, dans une famille aisée, liée à l’industrie de la construction navale. Scientifique amateur, il réalise un certain nombre d’observations météorologiques et rédige quelques rapports. L’un d’entre eux, écrit en 1852, parviendra à l’astronome François Arago. En 1854, il rejoint l’observatoire de Paris, dont il sera directeur adjoint, et assiste Urbain Le Verrier dans la création d’un réseau télégraphique de météorologie.
 Il part ensuite pour le Brésil afin d’observer l’éclipse solaire du 7 septembre 1858 ; il restera finalement presque 25 ans dans ce pays. Il devient un proche de l’empereur Pierre II du Brésil et est nommé directeur de l’observatoire impérial de Rio de Janeiro de janvier à juillet 1871, puis de 1874 à 1881.
 Bien que cet observatoire ait été fondé en 1827, il s’occupait jusque-là principalement de l’enseignement des élèves des écoles militaires. Liais le réoriente vers la recherche. Il y découvre une comète (C/1860 D1), la première à être découverte depuis le Brésil. Il se livre également des observations de la planète Mars et émet l’hypothèse que les taches d’albédo faibles à la surface sont liées à de la végétation plutôt qu’à la présence d’eau (on sait aujourd’hui que ces deux hypothèses sont fausses).
 À la demande de l’empereur, il conduit des expéditions d’exploration de l’intérieur du Brésil et étudie les plantes des régions reculées, en envoyant un certain nombre de spécimens en France. Il rédige alors un ouvrage intitulé Climats, géologie, faune et géographie botanique du Brésil.
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Climats, géologie, faune et géographie botanique du Brésil, Paris, Garnier Frères, 1872.
 Traité d’astronomie appliquée à la géographie et à la navigation ; suivi de, La géodésie pratique, Paris, Garnier, 1867.
